--- a/WhitePack_Full_Template_v7.2.xlsx
+++ b/WhitePack_Full_Template_v7.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\WhitePack_v7.2_FULL_MERGED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9805F05-5942-43E4-A6CC-538841F08D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964CD4DE-387A-459C-90C8-72B41117DB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>ورق</t>
   </si>
   <si>
-    <t>https://example.com/image.jpg</t>
-  </si>
-  <si>
     <t>96181085811</t>
   </si>
   <si>
@@ -97,16 +94,27 @@
   </si>
   <si>
     <t>charbel chidiac</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQTRIz_5va2njvWVvsNsQyIYRvuqJTCAHoIqA&amp;s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -129,13 +137,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,9 +449,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -499,14 +517,17 @@
       <c r="I2">
         <v>200</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{3DB63A49-DEEE-40F3-8DB7-EA8A2AC8ED9B}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -530,7 +551,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
@@ -538,18 +559,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>96170333029</v>
@@ -564,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,18 +598,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>

--- a/WhitePack_Full_Template_v7.2.xlsx
+++ b/WhitePack_Full_Template_v7.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Downloads\WhitePack_v7.2_FULL_MERGED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964CD4DE-387A-459C-90C8-72B41117DB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0121D253-84CF-45AE-99EE-A61499FE477B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,7 +96,7 @@
     <t>charbel chidiac</t>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQTRIz_5va2njvWVvsNsQyIYRvuqJTCAHoIqA&amp;s</t>
+    <t>https://sanitalb.com/public/uploads/images/69428894249722360.jpg</t>
   </si>
 </sst>
 </file>
@@ -450,14 +450,14 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="10" max="10" width="38.5703125" customWidth="1"/>
+    <col min="10" max="10" width="75.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{3DB63A49-DEEE-40F3-8DB7-EA8A2AC8ED9B}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{2D9A15B6-4DA3-4D28-B066-7E951F50AD73}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
